--- a/biology/Botanique/Chamaedorea_oblongata/Chamaedorea_oblongata.xlsx
+++ b/biology/Botanique/Chamaedorea_oblongata/Chamaedorea_oblongata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chamaedorea oblongata est une espèce de plantes à fleurs de la famille des Arecaceae (les palmiers) que l'on trouve depuis le  Mexique jusqu'au Nicaragua[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaedorea oblongata est une espèce de plantes à fleurs de la famille des Arecaceae (les palmiers) que l'on trouve depuis le  Mexique jusqu'au Nicaragua.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de petits palmiers avec des tiges dressées solitaires, parfois décombantes, pouvant atteindre 3 m de haut et de 1–2.5 cm de diamètre avec des entre-nœuds de 4–15 cm de long. 3 à 8 feuilles , dressées, avec 5 à 9 pennes  de chaque côté, la médiane lancéolée à rhomboïde lancéolée à oblongue- trapézoïdale, sigmoïde, de 17–40 cm de long et 3,5–10 cm de large, étroite, caduque et longuement acuminée, plus ou moins coriace, nervure principale et 2 nervures submarginales jaunâtres brillantes en dessous, rachis de 30–60 cm de long, abaxialement avec une bande jaune s'étendant jusqu'à la gaine ; gaine tubulaire, de 15–20 cm de long, pétiole de 15–30 cm de long. Les inflorescences sont infrafoliaires, solitaires, avec un pédoncule de 10–40 cm de long, des bractées 5–7 ; inflorescences staminées à rachis de 2,5–12 cm de long, vertes, rachis 9–25, longs de 30 cm, pendantes, fleurs de 3 mm de long et 3–4,5 mm de large, verdâtres en spirales denses, sépales connés à la base, pétales valvés, presque libres à la base ; inflorescences pistillées à 6–20 rachilles ou plus de 9–16 cm de long, rigides, ascendantes, rouge orangé et renflées chez le fruit, fleurs de 2 mm de long et 2,5–3 mm de large, en verticilles lâches, jaune-vert, sépales connés à l'extrémité base, pétales imbriqués presque jusqu'à l'apex. Les fruits sont ovoïdes- ellipsoïdes ou parfois falciformes ou légèrement lunaires, de 8–14 mm de long et 6–8 mm de large, atténués aux deux extrémités ou globuleux, noir brillant à maturité.
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distribué du Mexique au Nicaragua, il est commun dans les forêts sempervirentes humides ou très humides et les forêts des nuages de l'Atlantique et du centre-nord; à une altitude de 40 à 1600 mètres[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Distribué du Mexique au Nicaragua, il est commun dans les forêts sempervirentes humides ou très humides et les forêts des nuages de l'Atlantique et du centre-nord; à une altitude de 40 à 1600 mètres.
 </t>
         </is>
       </c>
@@ -573,12 +589,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chamaedorea oblongata a été décrite par Carl Friedrich Philipp von Martius et publié dans Histoire Naturalis Palmarum 3(7): 160, en 1838 (23 Sept 1838)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaedorea oblongata a été décrite par Carl Friedrich Philipp von Martius et publié dans Histoire Naturalis Palmarum 3(7): 160, en 1838 (23 Sept 1838).
 Etymologie
-Chamaedorea: Nom générique qui dérive des mots grecs: χαμαί (chamai), que signifie "sur le terrain", et δωρεά (dorea) , que signifie "cadeau", en référence aux fruits facilement obtenus dans la nature par l'élévation peu importante des plantes[5].
-oblongata, épithète Latin qui signifie oblong, en référence à la forme des fruits[3].
+Chamaedorea: Nom générique qui dérive des mots grecs: χαμαί (chamai), que signifie "sur le terrain", et δωρεά (dorea) , que signifie "cadeau", en référence aux fruits facilement obtenus dans la nature par l'élévation peu importante des plantes.
+oblongata, épithète Latin qui signifie oblong, en référence à la forme des fruits.
 </t>
         </is>
       </c>
